--- a/biology/Médecine/Gabriel_de_Zerbis/Gabriel_de_Zerbis.xlsx
+++ b/biology/Médecine/Gabriel_de_Zerbis/Gabriel_de_Zerbis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gabriel de Zerbis, ou Gabriele de Zerbis en italien, est un anatomiste italien de la fin du XVe siècle.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Avec Alessandro Benedetti et Jacopo Berengario da Carpi, Gabriel de Zerbis fit partie de ces pionniers qui, une cinquantaine d'années avant André Vésale, commencèrent à chercher la vérité anatomique dans l'observation directe du corps lui-même plutôt que dans ce que les textes anciens de Claude Galien ou Mondino de' Liuzzi disaient de la dissection[1].
-En 1495, il publie à Venise son De cautelis medicorum (« Des précautions [à prendre] avec les médicaments »)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Avec Alessandro Benedetti et Jacopo Berengario da Carpi, Gabriel de Zerbis fit partie de ces pionniers qui, une cinquantaine d'années avant André Vésale, commencèrent à chercher la vérité anatomique dans l'observation directe du corps lui-même plutôt que dans ce que les textes anciens de Claude Galien ou Mondino de' Liuzzi disaient de la dissection.
+En 1495, il publie à Venise son De cautelis medicorum (« Des précautions [à prendre] avec les médicaments »).
 </t>
         </is>
       </c>
